--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N2">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P2">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q2">
-        <v>66.47069615792377</v>
+        <v>344.3457178176026</v>
       </c>
       <c r="R2">
-        <v>66.47069615792377</v>
+        <v>3099.111460358424</v>
       </c>
       <c r="S2">
-        <v>0.0087569552112324</v>
+        <v>0.02236485918196687</v>
       </c>
       <c r="T2">
-        <v>0.0087569552112324</v>
+        <v>0.02236485918196687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N3">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P3">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q3">
-        <v>569.7421673832216</v>
+        <v>2538.639059833588</v>
       </c>
       <c r="R3">
-        <v>569.7421673832216</v>
+        <v>22847.75153850229</v>
       </c>
       <c r="S3">
-        <v>0.07505873911523035</v>
+        <v>0.1648816934528947</v>
       </c>
       <c r="T3">
-        <v>0.07505873911523035</v>
+        <v>0.1648816934528948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N4">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P4">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q4">
-        <v>1365.421557146901</v>
+        <v>6233.975077077942</v>
       </c>
       <c r="R4">
-        <v>1365.421557146901</v>
+        <v>56105.77569370148</v>
       </c>
       <c r="S4">
-        <v>0.1798828071843695</v>
+        <v>0.4048895267998948</v>
       </c>
       <c r="T4">
-        <v>0.1798828071843695</v>
+        <v>0.4048895267998948</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N5">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P5">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q5">
-        <v>98.90824363553484</v>
+        <v>121.3364396306969</v>
       </c>
       <c r="R5">
-        <v>98.90824363553484</v>
+        <v>1092.027956676272</v>
       </c>
       <c r="S5">
-        <v>0.01303032929699189</v>
+        <v>0.007880662501571087</v>
       </c>
       <c r="T5">
-        <v>0.01303032929699189</v>
+        <v>0.007880662501571085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N6">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P6">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q6">
-        <v>847.775040103289</v>
+        <v>894.5353727058344</v>
       </c>
       <c r="R6">
-        <v>847.775040103289</v>
+        <v>8050.818354352509</v>
       </c>
       <c r="S6">
-        <v>0.1116872318855693</v>
+        <v>0.05809904583872695</v>
       </c>
       <c r="T6">
-        <v>0.1116872318855693</v>
+        <v>0.05809904583872696</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N7">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P7">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q7">
-        <v>2031.744149611979</v>
+        <v>2196.653832064787</v>
       </c>
       <c r="R7">
-        <v>2031.744149611979</v>
+        <v>19769.88448858308</v>
       </c>
       <c r="S7">
-        <v>0.267665205078714</v>
+        <v>0.142670145390568</v>
       </c>
       <c r="T7">
-        <v>0.267665205078714</v>
+        <v>0.142670145390568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.97355413837648</v>
+        <v>2.300909333333333</v>
       </c>
       <c r="N8">
-        <v>1.97355413837648</v>
+        <v>6.902728</v>
       </c>
       <c r="O8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="P8">
-        <v>0.03320820998625463</v>
+        <v>0.03776979643482627</v>
       </c>
       <c r="Q8">
-        <v>86.69187508446853</v>
+        <v>115.8492333534729</v>
       </c>
       <c r="R8">
-        <v>86.69187508446853</v>
+        <v>1042.643100181256</v>
       </c>
       <c r="S8">
-        <v>0.01142092547803034</v>
+        <v>0.007524274751288321</v>
       </c>
       <c r="T8">
-        <v>0.01142092547803034</v>
+        <v>0.007524274751288321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.9159806838085</v>
+        <v>16.96312166666667</v>
       </c>
       <c r="N9">
-        <v>16.9159806838085</v>
+        <v>50.889365</v>
       </c>
       <c r="O9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="P9">
-        <v>0.2846384741861989</v>
+        <v>0.2784523679257784</v>
       </c>
       <c r="Q9">
-        <v>743.064533095803</v>
+        <v>854.0817371182894</v>
       </c>
       <c r="R9">
-        <v>743.064533095803</v>
+        <v>7686.735634064605</v>
       </c>
       <c r="S9">
-        <v>0.0978925031853993</v>
+        <v>0.05547162863415675</v>
       </c>
       <c r="T9">
-        <v>0.0978925031853993</v>
+        <v>0.05547162863415676</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.5401706390056</v>
+        <v>41.655263</v>
       </c>
       <c r="N10">
-        <v>40.5401706390056</v>
+        <v>124.965789</v>
       </c>
       <c r="O10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="P10">
-        <v>0.6821533158275465</v>
+        <v>0.6837778356393953</v>
       </c>
       <c r="Q10">
-        <v>1780.799087594767</v>
+        <v>2097.31440251765</v>
       </c>
       <c r="R10">
-        <v>1780.799087594767</v>
+        <v>18875.82962265885</v>
       </c>
       <c r="S10">
-        <v>0.2346053035644631</v>
+        <v>0.1362181634489326</v>
       </c>
       <c r="T10">
-        <v>0.2346053035644631</v>
+        <v>0.1362181634489326</v>
       </c>
     </row>
   </sheetData>
